--- a/dendy_junior_remastered/pcb/dendy_junior_MG-02/manual/bom_2.7.2.xlsx
+++ b/dendy_junior_remastered/pcb/dendy_junior_MG-02/manual/bom_2.7.2.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\GitHub\dendy_junior_remastered\dendy_junior_remastered\2.7.2\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\documents\GitHub\dendy_junior_remastered\dendy_junior_remastered\2.7.2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BDDCF9CB-E138-494C-A475-41615D41FA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4967507-AE80-4E50-955F-C61779C2D48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom_2.7.2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,15 +128,9 @@
     <t>C55, C57</t>
   </si>
   <si>
-    <t>10pF</t>
-  </si>
-  <si>
     <t>C56, C58</t>
   </si>
   <si>
-    <t>56pF</t>
-  </si>
-  <si>
     <t>HDR-1x3</t>
   </si>
   <si>
@@ -307,21 +308,6 @@
     <t>R26, R28</t>
   </si>
   <si>
-    <t>22Mom</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>200K</t>
-  </si>
-  <si>
     <t>R37, R38</t>
   </si>
   <si>
@@ -557,12 +543,33 @@
   </si>
   <si>
     <t>* В случае отсутствия диода D1, R43=0(перемычка), C46 - убрать</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>1Mom</t>
+  </si>
+  <si>
+    <t>R27, R29</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>R51 - Лучше не паять</t>
+  </si>
+  <si>
+    <t>C49 - Лучше не паять.</t>
+  </si>
+  <si>
+    <t>R27, R29 - Можно заменить конденсатором 30pF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,13 +1074,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,16 +1148,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G61" totalsRowCount="1">
-  <autoFilter ref="A1:G60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:G60" totalsRowCount="1">
+  <autoFilter ref="A1:G59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="#" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Имя"/>
-    <tableColumn id="3" name="Метка"/>
-    <tableColumn id="4" name="Значение"/>
-    <tableColumn id="5" name="Количество" totalsRowFunction="sum"/>
-    <tableColumn id="6" name="Chip-dip.ru PART N"/>
-    <tableColumn id="7" name="Комментарий"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Имя"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Метка"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Значение"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Количество" totalsRowFunction="sum"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Chip-dip.ru PART N"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Комментарий"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1451,11 +1459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G43" sqref="A43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1509,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1529,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1549,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1600,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1626,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1637,7 +1645,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1646,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1739,6 +1747,9 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1751,7 +1762,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1765,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1779,19 +1790,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1799,19 +1810,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1819,19 +1830,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1839,16 +1850,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1856,16 +1867,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,16 +1884,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1890,22 +1901,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1913,19 +1924,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1933,19 +1944,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1953,19 +1964,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1973,19 +1984,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,22 +2004,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,19 +2027,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2036,19 +2047,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2056,19 +2067,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
-      </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2076,13 +2087,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2093,13 +2104,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -2110,13 +2121,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2127,13 +2138,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2144,13 +2155,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2161,13 +2172,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2178,13 +2189,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -2195,13 +2206,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2212,13 +2223,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -2229,16 +2240,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E41">
         <v>6</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,13 +2260,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2263,16 +2277,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2280,16 +2297,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2297,16 +2314,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2314,16 +2331,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2331,22 +2354,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2354,19 +2374,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2374,16 +2391,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2391,19 +2411,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2411,19 +2431,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
-        <v>66</v>
+      <c r="F51" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2431,16 +2448,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2448,16 +2465,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>146</v>
+      </c>
+      <c r="G53" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2465,62 +2488,59 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>124</v>
+      <c r="B55">
+        <v>7805</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="D55">
+        <v>7805</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>7805</v>
+      <c r="B56" t="s">
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56">
-        <v>7805</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="G56" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2528,19 +2548,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2548,19 +2568,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2568,54 +2585,33 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="G59" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" t="s">
-        <v>133</v>
-      </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <f>SUBTOTAL(103,Таблица1['#])</f>
-        <v>59</v>
-      </c>
-      <c r="E61">
         <f>SUBTOTAL(109,Таблица1[Количество])</f>
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>178</v>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
